--- a/人天梳理.xlsx
+++ b/人天梳理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>项目</t>
   </si>
@@ -34,6 +34,9 @@
     <t>项目经理</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>宁波银行</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>给维护人员</t>
   </si>
   <si>
+    <t>具体剩余人天， 腾飞有记录， 都分配给陈玟树</t>
+  </si>
+  <si>
     <t xml:space="preserve">    轨迹追踪</t>
   </si>
   <si>
@@ -145,6 +151,9 @@
     <t>VPN集成</t>
   </si>
   <si>
+    <t>剩余4天未结算， 功能已开发完， 涉及到以后升级版本， 4天都给陈玟树</t>
+  </si>
+  <si>
     <t>华广智慧</t>
   </si>
   <si>
@@ -152,6 +161,28 @@
   </si>
   <si>
     <t>林泽杨、张小飞</t>
+  </si>
+  <si>
+    <t>这个我拿3天， 其余结算给玟树， 合同总人天9天。</t>
+  </si>
+  <si>
+    <t>碧桂园</t>
+  </si>
+  <si>
+    <t>新待办、单条消息转发、合并转发（去掉消息来源）、群聊按时间搜索</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">备注：未结算总人天 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <charset val="134"/>
+      </rPr>
+      <t>98</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -159,12 +190,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,6 +227,44 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,18 +278,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,73 +355,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -307,27 +362,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -352,181 +390,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +601,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,117 +675,126 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,58 +803,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,6 +843,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1125,23 +1172,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.5625" customWidth="1"/>
     <col min="2" max="2" width="22.3125" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.9910714285714" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="4" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="23.9375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.2678571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34.4" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="34.4" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1160,143 +1207,158 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <f>E2-C2</f>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f>E3-C3</f>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f>E4-C4</f>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="36" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="36" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="36" spans="1:7">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1308,15 +1370,15 @@
         <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1328,35 +1390,36 @@
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <f>E11-C11</f>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1368,15 +1431,15 @@
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1388,35 +1451,35 @@
         <v>5.5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1428,132 +1491,140 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <f>E16-C16</f>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>17</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <f>E17-C17</f>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <f>E18-C18</f>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <f>E19-C19</f>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="36" spans="1:6">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20">
+        <f>E20-C20</f>
         <v>0</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" ht="53" spans="1:7">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4">
         <v>4</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" ht="36" spans="1:7">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1562,16 +1633,58 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" ht="71" spans="1:6">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A25:F26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
